--- a/biology/Mycologie/Xerocomus_parasiticus/Xerocomus_parasiticus.xlsx
+++ b/biology/Mycologie/Xerocomus_parasiticus/Xerocomus_parasiticus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet parasite
 Pseudoboletus parasiticus, le Bolet parasite, anciennement Xerocomus parasiticus, est une espèce de champignons basidiomycètes du genre Pseudoboletus dans la famille des Boletacées. C'est un parasite des sclérodermes.
@@ -514,13 +526,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nom binomial accepté
-Pseudoboletus parasiticus (Bull.) Šutara 1991[1]
-Synonymes
-Boletus parasiticus Bull., 1790 [2]
-Ceriomyces parasiticus (Bull.) Murrill 1909[3] (synonyme)
-Versipellis parasitica (Bull.) Quél. 1886 (synonyme)
-Xerocomus parasiticus (Bull.) Quél. 1888 (synonyme)</t>
+          <t>Nom binomial accepté</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pseudoboletus parasiticus (Bull.) Šutara 1991
+</t>
         </is>
       </c>
     </row>
@@ -545,10 +558,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Boletus parasiticus Bull., 1790 
+Ceriomyces parasiticus (Bull.) Murrill 1909 (synonyme)
+Versipellis parasitica (Bull.) Quél. 1886 (synonyme)
+Xerocomus parasiticus (Bull.) Quél. 1888 (synonyme)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Xerocomus_parasiticus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xerocomus_parasiticus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Chapeau 2 à 6 cm, hémisphérique puis convexe et tardivement aplani en vieillissant, ochracé à brun olivâtre ; marge concolore, enroulée au début.
 Tubes amples, jaune citrin à jaune d'or, se tachant de brun par endroits, décurrents et lamelliformes au sommet du stipe ; sporée brun olivâtre.
@@ -557,31 +611,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Xerocomus_parasiticus</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Xerocomus_parasiticus</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèce acidophile comme son hôte, le bolet parasite pousse d'août à octobre accolé aux sclérodermes et notamment au plus courant d'entre eux, Scleroderma citrinum. Solitaire ou en groupes pouvant atteindre la dizaine d'individus autour de la même "victime", il se développe à partir de la base du scléroderme, au niveau des cordons mycéliens et l'accompagne dans sa croissance, en en contournant le flanc courbé avant de se redresser.
 Il ne tue pas son hôte mais retarde la maturation des spores.
@@ -589,37 +645,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Xerocomus_parasiticus</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Xerocomus_parasiticus</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Variétés et formes</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Pseudoboletus parasiticus f. piperatoides, pores orangés à rougeâtres, spores souvent tronquées[4].
-Pseudoboletus parasiticus f. peylii, chapeau jaune, visqueux et luisant sec. Spores plus petites 14-15 x 4 μm[4].</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -641,13 +666,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Comestibilité</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bolet parasite est comestible mais, de par sa petite taille et son manque de saveur, il est sans intérêt[5].
-</t>
+          <t>Variétés et formes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Pseudoboletus parasiticus f. piperatoides, pores orangés à rougeâtres, spores souvent tronquées.
+Pseudoboletus parasiticus f. peylii, chapeau jaune, visqueux et luisant sec. Spores plus petites 14-15 x 4 μm.</t>
         </is>
       </c>
     </row>
@@ -672,10 +699,45 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Comestibilité</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bolet parasite est comestible mais, de par sa petite taille et son manque de saveur, il est sans intérêt.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Xerocomus_parasiticus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xerocomus_parasiticus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Espèces proches et confusions possibles</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Ne serait-ce son habitat, le bolet parasite pourrait se confondre avec d'autres boletacées qui comme lui ont été autrefois classées dans les Xerocomus telles que Imleria badia ou Xerocomellus chrysenteron, mais la présence du scléroderme ne permet aucune méprise.
 Il existe, dans des genres éloignés, d'autres champignons parasites de champignons, par exemple Asterophora parasitica sur certaines russulacées.
